--- a/data_year/zb/批发和零售业/限额以上批发业企业主要财务指标/按国民经济行业分限额以上批发业企业税金及附加.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业主要财务指标/按国民经济行业分限额以上批发业企业税金及附加.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1340 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.3034</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>30.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.9</v>
+      </c>
       <c r="E2" t="n">
-        <v>1.7315</v>
+        <v>14.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2622</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.9</v>
+      </c>
       <c r="J2" t="n">
-        <v>0.8875</v>
+        <v>40.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.2913</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>15.7421</v>
+        <v>445.7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.3065</v>
+        <v>45.8</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8266</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>30.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>176.2</v>
+      </c>
       <c r="P2" t="n">
-        <v>0.4831</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>3.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>19</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12</v>
+      </c>
+      <c r="T2" t="n">
+        <v>55.1</v>
+      </c>
       <c r="U2" t="n">
-        <v>19.1417</v>
+        <v>481.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>30.1893</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.7795</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.2072</v>
+      </c>
       <c r="E3" t="n">
-        <v>2.2667</v>
+        <v>18.9207</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2571</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>16.0971</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.3233</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.0613</v>
+      </c>
+      <c r="J3" t="n">
+        <v>146.5177</v>
+      </c>
       <c r="K3" t="n">
-        <v>1.0492</v>
+        <v>98.5604</v>
       </c>
       <c r="L3" t="n">
-        <v>12.6909</v>
+        <v>537.2075</v>
       </c>
       <c r="M3" t="n">
-        <v>1.8879</v>
+        <v>44.0759</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7502</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>39.115</v>
+      </c>
+      <c r="O3" t="n">
+        <v>186.0578</v>
+      </c>
       <c r="P3" t="n">
-        <v>0.7134</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>4.2193</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>33.7127</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.9176</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7.4674</v>
+      </c>
+      <c r="T3" t="n">
+        <v>49.6281</v>
+      </c>
       <c r="U3" t="n">
-        <v>16.6499</v>
+        <v>581.9756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22.31229</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.7007</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.342</v>
+      </c>
       <c r="E4" t="n">
-        <v>3.0069</v>
+        <v>23.26789</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3156</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>18.65849</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19.00031</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.56162</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18.79022</v>
+      </c>
+      <c r="J4" t="n">
+        <v>139.46395</v>
+      </c>
       <c r="K4" t="n">
-        <v>1.7374</v>
+        <v>91.1065</v>
       </c>
       <c r="L4" t="n">
-        <v>8.476900000000001</v>
+        <v>603.40009</v>
       </c>
       <c r="M4" t="n">
-        <v>1.0261</v>
+        <v>50.66041</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7363</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>40.75028</v>
+      </c>
+      <c r="O4" t="n">
+        <v>192.93839</v>
+      </c>
       <c r="P4" t="n">
-        <v>0.5582</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>6.66069</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>52.75286</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.27988</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.77165</v>
+      </c>
+      <c r="T4" t="n">
+        <v>46.77596</v>
+      </c>
       <c r="U4" t="n">
-        <v>11.7569</v>
+        <v>665.71694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.72409</v>
+        <v>31.22978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.86551</v>
+        <v>28.2849</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23068</v>
+        <v>17.63967</v>
       </c>
       <c r="E5" t="n">
-        <v>2.11497</v>
+        <v>34.11162</v>
       </c>
       <c r="F5" t="n">
-        <v>0.55894</v>
+        <v>27.13165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.96123</v>
+        <v>14.609</v>
       </c>
       <c r="H5" t="n">
-        <v>0.53108</v>
+        <v>14.14389</v>
       </c>
       <c r="I5" t="n">
-        <v>0.483</v>
+        <v>29.171</v>
       </c>
       <c r="J5" t="n">
-        <v>3.78646</v>
+        <v>206.52833</v>
       </c>
       <c r="K5" t="n">
-        <v>1.08574</v>
+        <v>144.06636</v>
       </c>
       <c r="L5" t="n">
-        <v>10.62729</v>
+        <v>679.25471</v>
       </c>
       <c r="M5" t="n">
-        <v>1.34604</v>
+        <v>65.81328999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>6.92896</v>
+        <v>65.95025</v>
       </c>
       <c r="O5" t="n">
-        <v>14.06743</v>
+        <v>309.94123</v>
       </c>
       <c r="P5" t="n">
-        <v>0.21788</v>
+        <v>8.52731</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37168</v>
+        <v>79.35149</v>
       </c>
       <c r="R5" t="n">
-        <v>0.18441</v>
+        <v>4.04717</v>
       </c>
       <c r="S5" t="n">
-        <v>2.06306</v>
+        <v>6.45443</v>
       </c>
       <c r="T5" t="n">
-        <v>3.15708</v>
+        <v>78.44498</v>
       </c>
       <c r="U5" t="n">
-        <v>13.27046</v>
+        <v>779.3353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.20128</v>
+        <v>33.54807</v>
       </c>
       <c r="C6" t="n">
-        <v>1.56759</v>
+        <v>36.13958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52989</v>
+        <v>13.94486</v>
       </c>
       <c r="E6" t="n">
-        <v>3.65283</v>
+        <v>38.13339</v>
       </c>
       <c r="F6" t="n">
-        <v>2.33914</v>
+        <v>27.60975</v>
       </c>
       <c r="G6" t="n">
-        <v>1.45994</v>
+        <v>14.14885</v>
       </c>
       <c r="H6" t="n">
-        <v>1.16919</v>
+        <v>12.62624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.90315</v>
+        <v>33.44657</v>
       </c>
       <c r="J6" t="n">
-        <v>10.28977</v>
+        <v>192.60066</v>
       </c>
       <c r="K6" t="n">
-        <v>1.98449</v>
+        <v>127.98702</v>
       </c>
       <c r="L6" t="n">
-        <v>18.08484</v>
+        <v>721.39786</v>
       </c>
       <c r="M6" t="n">
-        <v>6.37026</v>
+        <v>54.6779</v>
       </c>
       <c r="N6" t="n">
-        <v>16.56954</v>
+        <v>44.49562</v>
       </c>
       <c r="O6" t="n">
-        <v>37.4086</v>
+        <v>263.87021</v>
       </c>
       <c r="P6" t="n">
-        <v>1.36479</v>
+        <v>8.44584</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.24135</v>
+        <v>86.48501</v>
       </c>
       <c r="R6" t="n">
-        <v>0.86942</v>
+        <v>4.2767</v>
       </c>
       <c r="S6" t="n">
-        <v>0.41487</v>
+        <v>6.98188</v>
       </c>
       <c r="T6" t="n">
-        <v>7.10223</v>
+        <v>66.01206000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>23.83649</v>
+        <v>824.8109899999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.25248</v>
+        <v>30.5462</v>
       </c>
       <c r="C7" t="n">
-        <v>1.23246</v>
+        <v>26.1426</v>
       </c>
       <c r="D7" t="n">
-        <v>0.81672</v>
+        <v>16.1812</v>
       </c>
       <c r="E7" t="n">
-        <v>3.54925</v>
+        <v>44.0162</v>
       </c>
       <c r="F7" t="n">
-        <v>2.71647</v>
+        <v>29.8943</v>
       </c>
       <c r="G7" t="n">
-        <v>1.56829</v>
+        <v>17.7928</v>
       </c>
       <c r="H7" t="n">
-        <v>1.69218</v>
+        <v>12.9583</v>
       </c>
       <c r="I7" t="n">
-        <v>1.30325</v>
+        <v>24.4151</v>
       </c>
       <c r="J7" t="n">
-        <v>10.65132</v>
+        <v>170.5577</v>
       </c>
       <c r="K7" t="n">
-        <v>1.46672</v>
+        <v>92.09050000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>17.07409</v>
+        <v>1334.9931</v>
       </c>
       <c r="M7" t="n">
-        <v>7.14157</v>
+        <v>49.5078</v>
       </c>
       <c r="N7" t="n">
-        <v>11.90426</v>
+        <v>55.8031</v>
       </c>
       <c r="O7" t="n">
-        <v>33.06124</v>
+        <v>280.037</v>
       </c>
       <c r="P7" t="n">
-        <v>0.49614</v>
+        <v>9.4968</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.63155</v>
+        <v>84.7132</v>
       </c>
       <c r="R7" t="n">
-        <v>0.70647</v>
+        <v>4.7089</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5394</v>
+        <v>7.9566</v>
       </c>
       <c r="T7" t="n">
-        <v>6.71583</v>
+        <v>63.3024</v>
       </c>
       <c r="U7" t="n">
-        <v>22.69924</v>
+        <v>1465.3391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.0367</v>
+        <v>33.7142</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5096</v>
+        <v>23.8608</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0734</v>
+        <v>10.7349</v>
       </c>
       <c r="E8" t="n">
-        <v>4.3568</v>
+        <v>49.9491</v>
       </c>
       <c r="F8" t="n">
-        <v>1.6814</v>
+        <v>36.2321</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9098</v>
+        <v>19.2575</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5882</v>
+        <v>12.8645</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1208</v>
+        <v>19.1859</v>
       </c>
       <c r="J8" t="n">
-        <v>11.9218</v>
+        <v>170.0413</v>
       </c>
       <c r="K8" t="n">
-        <v>1.9159</v>
+        <v>90.2457</v>
       </c>
       <c r="L8" t="n">
-        <v>20.3966</v>
+        <v>1672.6878</v>
       </c>
       <c r="M8" t="n">
-        <v>7.0103</v>
+        <v>51.9947</v>
       </c>
       <c r="N8" t="n">
-        <v>15.8183</v>
+        <v>51.9579</v>
       </c>
       <c r="O8" t="n">
-        <v>37.584</v>
+        <v>270.3464</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5183</v>
+        <v>15.3506</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.8138</v>
+        <v>74.51560000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9248</v>
+        <v>4.9527</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6358</v>
+        <v>6.406</v>
       </c>
       <c r="T8" t="n">
-        <v>8.5677</v>
+        <v>50.8737</v>
       </c>
       <c r="U8" t="n">
-        <v>26.9661</v>
+        <v>1802.3443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.93492</v>
+        <v>28.655</v>
       </c>
       <c r="C9" t="n">
-        <v>2.55931</v>
+        <v>19.415</v>
       </c>
       <c r="D9" t="n">
-        <v>4.8076</v>
+        <v>6.692</v>
       </c>
       <c r="E9" t="n">
-        <v>5.03364</v>
+        <v>64.511</v>
       </c>
       <c r="F9" t="n">
-        <v>3.14804</v>
+        <v>28.006</v>
       </c>
       <c r="G9" t="n">
-        <v>2.15963</v>
+        <v>20.907</v>
       </c>
       <c r="H9" t="n">
-        <v>2.20339</v>
+        <v>16.589</v>
       </c>
       <c r="I9" t="n">
-        <v>2.20219</v>
+        <v>20.505</v>
       </c>
       <c r="J9" t="n">
-        <v>14.01537</v>
+        <v>139.879</v>
       </c>
       <c r="K9" t="n">
-        <v>2.42031</v>
+        <v>70.045</v>
       </c>
       <c r="L9" t="n">
-        <v>25.06193</v>
+        <v>1758.123</v>
       </c>
       <c r="M9" t="n">
-        <v>12.88184</v>
+        <v>54.291</v>
       </c>
       <c r="N9" t="n">
-        <v>22.20956</v>
+        <v>59.885</v>
       </c>
       <c r="O9" t="n">
-        <v>70.25664999999999</v>
+        <v>244.928</v>
       </c>
       <c r="P9" t="n">
-        <v>0.56301</v>
+        <v>9.596</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.12358</v>
+        <v>81.443</v>
       </c>
       <c r="R9" t="n">
-        <v>0.89219</v>
+        <v>5.314</v>
       </c>
       <c r="S9" t="n">
-        <v>2.68445</v>
+        <v>5.288</v>
       </c>
       <c r="T9" t="n">
-        <v>22.48607</v>
+        <v>58.698</v>
       </c>
       <c r="U9" t="n">
-        <v>32.08624</v>
+        <v>1848.363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.1344</v>
+        <v>43.4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.9088</v>
+        <v>15.6</v>
       </c>
       <c r="D10" t="n">
-        <v>12.9999</v>
+        <v>6.6</v>
       </c>
       <c r="E10" t="n">
-        <v>10.5211</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>9.4313</v>
+        <v>30.3</v>
       </c>
       <c r="G10" t="n">
-        <v>5.4752</v>
+        <v>21.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1677</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>5.0579</v>
+        <v>19.7</v>
       </c>
       <c r="J10" t="n">
-        <v>35.7191</v>
+        <v>143.1</v>
       </c>
       <c r="K10" t="n">
-        <v>8.494199999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>35.9674</v>
+        <v>1827.6</v>
       </c>
       <c r="M10" t="n">
-        <v>42.8047</v>
+        <v>49.5</v>
       </c>
       <c r="N10" t="n">
-        <v>29.5403</v>
+        <v>54.8</v>
       </c>
       <c r="O10" t="n">
-        <v>233.5703</v>
+        <v>252.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1027</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.0389</v>
+        <v>73.5</v>
       </c>
       <c r="R10" t="n">
-        <v>3.867</v>
+        <v>7</v>
       </c>
       <c r="S10" t="n">
-        <v>7.0897</v>
+        <v>12.2</v>
       </c>
       <c r="T10" t="n">
-        <v>93.3914</v>
+        <v>71.3</v>
       </c>
       <c r="U10" t="n">
-        <v>53.0179</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.85236</v>
+        <v>54.8355</v>
       </c>
       <c r="C11" t="n">
-        <v>7.3489</v>
+        <v>26.5035</v>
       </c>
       <c r="D11" t="n">
-        <v>7.09268</v>
+        <v>5.4175</v>
       </c>
       <c r="E11" t="n">
-        <v>10.25191</v>
+        <v>141.1457</v>
       </c>
       <c r="F11" t="n">
-        <v>11.46814</v>
+        <v>55.5342</v>
       </c>
       <c r="G11" t="n">
-        <v>4.01466</v>
+        <v>22.3162</v>
       </c>
       <c r="H11" t="n">
-        <v>5.51502</v>
+        <v>12.8845</v>
       </c>
       <c r="I11" t="n">
-        <v>4.77512</v>
+        <v>21.7153</v>
       </c>
       <c r="J11" t="n">
-        <v>32.37099</v>
+        <v>153.4314</v>
       </c>
       <c r="K11" t="n">
-        <v>5.92145</v>
+        <v>65.60980000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>248.36937</v>
+        <v>1945.8684</v>
       </c>
       <c r="M11" t="n">
-        <v>39.33931</v>
+        <v>58.3254</v>
       </c>
       <c r="N11" t="n">
-        <v>22.97586</v>
+        <v>225.6951</v>
       </c>
       <c r="O11" t="n">
-        <v>157.37819</v>
+        <v>582.2132</v>
       </c>
       <c r="P11" t="n">
-        <v>2.15604</v>
+        <v>11.6379</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.88658</v>
+        <v>87.8254</v>
       </c>
       <c r="R11" t="n">
-        <v>4.14923</v>
+        <v>8.021699999999999</v>
       </c>
       <c r="S11" t="n">
-        <v>4.52818</v>
+        <v>12.6683</v>
       </c>
       <c r="T11" t="n">
-        <v>62.96984</v>
+        <v>174.5515</v>
       </c>
       <c r="U11" t="n">
-        <v>270.68654</v>
+        <v>2064.1007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.1</v>
+        <v>55.0961</v>
       </c>
       <c r="C12" t="n">
-        <v>9.199999999999999</v>
+        <v>20.1857</v>
       </c>
       <c r="D12" t="n">
-        <v>8.9</v>
+        <v>4.5096</v>
       </c>
       <c r="E12" t="n">
-        <v>14.7</v>
+        <v>88.33839999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>14.4</v>
+        <v>38.4112</v>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>21.7251</v>
       </c>
       <c r="H12" t="n">
-        <v>5.9</v>
+        <v>11.7205</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>19.332</v>
       </c>
       <c r="J12" t="n">
-        <v>40.5</v>
+        <v>163.751</v>
       </c>
       <c r="K12" t="n">
-        <v>8.199999999999999</v>
+        <v>78.2026</v>
       </c>
       <c r="L12" t="n">
-        <v>445.7</v>
+        <v>2016.5177</v>
       </c>
       <c r="M12" t="n">
-        <v>45.8</v>
+        <v>55.4184</v>
       </c>
       <c r="N12" t="n">
-        <v>30.3</v>
+        <v>62.8779</v>
       </c>
       <c r="O12" t="n">
-        <v>176.2</v>
+        <v>313.8739</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>14.5937</v>
       </c>
       <c r="Q12" t="n">
-        <v>19</v>
+        <v>79.1956</v>
       </c>
       <c r="R12" t="n">
-        <v>2.7</v>
+        <v>10.2824</v>
       </c>
       <c r="S12" t="n">
-        <v>12</v>
+        <v>5.6635</v>
       </c>
       <c r="T12" t="n">
-        <v>55.1</v>
+        <v>97.0762</v>
       </c>
       <c r="U12" t="n">
-        <v>481.6</v>
+        <v>2101.8707</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.1893</v>
+        <v>72.6985</v>
       </c>
       <c r="C13" t="n">
-        <v>12.7795</v>
+        <v>23.9661</v>
       </c>
       <c r="D13" t="n">
-        <v>10.2072</v>
+        <v>5.9047</v>
       </c>
       <c r="E13" t="n">
-        <v>18.9207</v>
+        <v>100.4025</v>
       </c>
       <c r="F13" t="n">
-        <v>16.0971</v>
+        <v>48.0005</v>
       </c>
       <c r="G13" t="n">
-        <v>7.32</v>
+        <v>30.8304</v>
       </c>
       <c r="H13" t="n">
-        <v>10.3233</v>
+        <v>13.8342</v>
       </c>
       <c r="I13" t="n">
-        <v>14.0613</v>
+        <v>20.0452</v>
       </c>
       <c r="J13" t="n">
-        <v>146.5177</v>
+        <v>195.6368</v>
       </c>
       <c r="K13" t="n">
-        <v>98.5604</v>
+        <v>87.74209999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>537.2075</v>
+        <v>2144.9427</v>
       </c>
       <c r="M13" t="n">
-        <v>44.0759</v>
+        <v>89.0997</v>
       </c>
       <c r="N13" t="n">
-        <v>39.115</v>
+        <v>63.3383</v>
       </c>
       <c r="O13" t="n">
-        <v>186.0578</v>
+        <v>423.0803</v>
       </c>
       <c r="P13" t="n">
-        <v>4.2193</v>
+        <v>13.5804</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.7127</v>
+        <v>98.0294</v>
       </c>
       <c r="R13" t="n">
-        <v>3.9176</v>
+        <v>14.6456</v>
       </c>
       <c r="S13" t="n">
-        <v>7.4674</v>
+        <v>4.8731</v>
       </c>
       <c r="T13" t="n">
-        <v>49.6281</v>
+        <v>151.8381</v>
       </c>
       <c r="U13" t="n">
-        <v>581.9756</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>22.31229</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11.7007</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.342</v>
-      </c>
-      <c r="E14" t="n">
-        <v>23.26789</v>
-      </c>
-      <c r="F14" t="n">
-        <v>18.65849</v>
-      </c>
-      <c r="G14" t="n">
-        <v>19.00031</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9.56162</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18.79022</v>
-      </c>
-      <c r="J14" t="n">
-        <v>139.46395</v>
-      </c>
-      <c r="K14" t="n">
-        <v>91.1065</v>
-      </c>
-      <c r="L14" t="n">
-        <v>603.40009</v>
-      </c>
-      <c r="M14" t="n">
-        <v>50.66041</v>
-      </c>
-      <c r="N14" t="n">
-        <v>40.75028</v>
-      </c>
-      <c r="O14" t="n">
-        <v>192.93839</v>
-      </c>
-      <c r="P14" t="n">
-        <v>6.66069</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>52.75286</v>
-      </c>
-      <c r="R14" t="n">
-        <v>7.27988</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5.77165</v>
-      </c>
-      <c r="T14" t="n">
-        <v>46.77596</v>
-      </c>
-      <c r="U14" t="n">
-        <v>665.71694</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>31.22978</v>
-      </c>
-      <c r="C15" t="n">
-        <v>28.2849</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17.63967</v>
-      </c>
-      <c r="E15" t="n">
-        <v>34.11162</v>
-      </c>
-      <c r="F15" t="n">
-        <v>27.13165</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14.609</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14.14389</v>
-      </c>
-      <c r="I15" t="n">
-        <v>29.171</v>
-      </c>
-      <c r="J15" t="n">
-        <v>206.52833</v>
-      </c>
-      <c r="K15" t="n">
-        <v>144.06636</v>
-      </c>
-      <c r="L15" t="n">
-        <v>679.25471</v>
-      </c>
-      <c r="M15" t="n">
-        <v>65.81328999999999</v>
-      </c>
-      <c r="N15" t="n">
-        <v>65.95025</v>
-      </c>
-      <c r="O15" t="n">
-        <v>309.94123</v>
-      </c>
-      <c r="P15" t="n">
-        <v>8.52731</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>79.35149</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4.04717</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6.45443</v>
-      </c>
-      <c r="T15" t="n">
-        <v>78.44498</v>
-      </c>
-      <c r="U15" t="n">
-        <v>779.3353</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>33.54807</v>
-      </c>
-      <c r="C16" t="n">
-        <v>36.13958</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.94486</v>
-      </c>
-      <c r="E16" t="n">
-        <v>38.13339</v>
-      </c>
-      <c r="F16" t="n">
-        <v>27.60975</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14.14885</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12.62624</v>
-      </c>
-      <c r="I16" t="n">
-        <v>33.44657</v>
-      </c>
-      <c r="J16" t="n">
-        <v>192.60066</v>
-      </c>
-      <c r="K16" t="n">
-        <v>127.98702</v>
-      </c>
-      <c r="L16" t="n">
-        <v>721.39786</v>
-      </c>
-      <c r="M16" t="n">
-        <v>54.6779</v>
-      </c>
-      <c r="N16" t="n">
-        <v>44.49562</v>
-      </c>
-      <c r="O16" t="n">
-        <v>263.87021</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8.44584</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>86.48501</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4.2767</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6.98188</v>
-      </c>
-      <c r="T16" t="n">
-        <v>66.01206000000001</v>
-      </c>
-      <c r="U16" t="n">
-        <v>824.8109899999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>30.5462</v>
-      </c>
-      <c r="C17" t="n">
-        <v>26.1426</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16.1812</v>
-      </c>
-      <c r="E17" t="n">
-        <v>44.0162</v>
-      </c>
-      <c r="F17" t="n">
-        <v>29.8943</v>
-      </c>
-      <c r="G17" t="n">
-        <v>17.7928</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12.9583</v>
-      </c>
-      <c r="I17" t="n">
-        <v>24.4151</v>
-      </c>
-      <c r="J17" t="n">
-        <v>170.5577</v>
-      </c>
-      <c r="K17" t="n">
-        <v>92.09050000000001</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1334.9931</v>
-      </c>
-      <c r="M17" t="n">
-        <v>49.5078</v>
-      </c>
-      <c r="N17" t="n">
-        <v>55.8031</v>
-      </c>
-      <c r="O17" t="n">
-        <v>280.037</v>
-      </c>
-      <c r="P17" t="n">
-        <v>9.4968</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>84.7132</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4.7089</v>
-      </c>
-      <c r="S17" t="n">
-        <v>7.9566</v>
-      </c>
-      <c r="T17" t="n">
-        <v>63.3024</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1465.3391</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>33.7142</v>
-      </c>
-      <c r="C18" t="n">
-        <v>23.8608</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10.7349</v>
-      </c>
-      <c r="E18" t="n">
-        <v>49.9491</v>
-      </c>
-      <c r="F18" t="n">
-        <v>36.2321</v>
-      </c>
-      <c r="G18" t="n">
-        <v>19.2575</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12.8645</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19.1859</v>
-      </c>
-      <c r="J18" t="n">
-        <v>170.0413</v>
-      </c>
-      <c r="K18" t="n">
-        <v>90.2457</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1672.6878</v>
-      </c>
-      <c r="M18" t="n">
-        <v>51.9947</v>
-      </c>
-      <c r="N18" t="n">
-        <v>51.9579</v>
-      </c>
-      <c r="O18" t="n">
-        <v>270.3464</v>
-      </c>
-      <c r="P18" t="n">
-        <v>15.3506</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>74.51560000000001</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4.9527</v>
-      </c>
-      <c r="S18" t="n">
-        <v>6.406</v>
-      </c>
-      <c r="T18" t="n">
-        <v>50.8737</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1802.3443</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>28.655</v>
-      </c>
-      <c r="C19" t="n">
-        <v>19.415</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6.692</v>
-      </c>
-      <c r="E19" t="n">
-        <v>64.511</v>
-      </c>
-      <c r="F19" t="n">
-        <v>28.006</v>
-      </c>
-      <c r="G19" t="n">
-        <v>20.907</v>
-      </c>
-      <c r="H19" t="n">
-        <v>16.589</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20.505</v>
-      </c>
-      <c r="J19" t="n">
-        <v>139.879</v>
-      </c>
-      <c r="K19" t="n">
-        <v>70.045</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1758.123</v>
-      </c>
-      <c r="M19" t="n">
-        <v>54.291</v>
-      </c>
-      <c r="N19" t="n">
-        <v>59.885</v>
-      </c>
-      <c r="O19" t="n">
-        <v>244.928</v>
-      </c>
-      <c r="P19" t="n">
-        <v>9.596</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>81.443</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5.314</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5.288</v>
-      </c>
-      <c r="T19" t="n">
-        <v>58.698</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1848.363</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1827.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>54.8355</v>
-      </c>
-      <c r="C21" t="n">
-        <v>26.5035</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5.4175</v>
-      </c>
-      <c r="E21" t="n">
-        <v>141.1457</v>
-      </c>
-      <c r="F21" t="n">
-        <v>55.5342</v>
-      </c>
-      <c r="G21" t="n">
-        <v>22.3162</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12.8845</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21.7153</v>
-      </c>
-      <c r="J21" t="n">
-        <v>153.4314</v>
-      </c>
-      <c r="K21" t="n">
-        <v>65.60980000000001</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1945.8684</v>
-      </c>
-      <c r="M21" t="n">
-        <v>58.3254</v>
-      </c>
-      <c r="N21" t="n">
-        <v>225.6951</v>
-      </c>
-      <c r="O21" t="n">
-        <v>582.2132</v>
-      </c>
-      <c r="P21" t="n">
-        <v>11.6379</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>87.8254</v>
-      </c>
-      <c r="R21" t="n">
-        <v>8.021699999999999</v>
-      </c>
-      <c r="S21" t="n">
-        <v>12.6683</v>
-      </c>
-      <c r="T21" t="n">
-        <v>174.5515</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2064.1007</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>55.0961</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20.1857</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.5096</v>
-      </c>
-      <c r="E22" t="n">
-        <v>88.33839999999999</v>
-      </c>
-      <c r="F22" t="n">
-        <v>38.4112</v>
-      </c>
-      <c r="G22" t="n">
-        <v>21.7251</v>
-      </c>
-      <c r="H22" t="n">
-        <v>11.7205</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19.332</v>
-      </c>
-      <c r="J22" t="n">
-        <v>163.751</v>
-      </c>
-      <c r="K22" t="n">
-        <v>78.2026</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2016.5177</v>
-      </c>
-      <c r="M22" t="n">
-        <v>55.4184</v>
-      </c>
-      <c r="N22" t="n">
-        <v>62.8779</v>
-      </c>
-      <c r="O22" t="n">
-        <v>313.8739</v>
-      </c>
-      <c r="P22" t="n">
-        <v>14.5937</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>79.1956</v>
-      </c>
-      <c r="R22" t="n">
-        <v>10.2824</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5.6635</v>
-      </c>
-      <c r="T22" t="n">
-        <v>97.0762</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2101.8707</v>
+        <v>2246.4715</v>
       </c>
     </row>
   </sheetData>
